--- a/dev/15s.xlsx
+++ b/dev/15s.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav\Documents\5 Klasse\ProsjektOppgave\Code\Dream2025\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626DFD78-2EEB-426D-9B93-3DC00160FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Results" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,23 @@
     <sheet name="s08" sheetId="9" r:id="rId9"/>
     <sheet name="s09" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Results!$A$1:$J$55</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +213,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +299,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +334,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,14 +510,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -528,28 +563,28 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>0.8475609756097561</v>
+        <v>0.84756097560975607</v>
       </c>
       <c r="E2">
-        <v>0.8481274399523588</v>
+        <v>0.84812743995235884</v>
       </c>
       <c r="F2">
         <v>0.6952428146679881</v>
       </c>
       <c r="G2">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="H2">
         <v>0.359375</v>
       </c>
       <c r="I2">
-        <v>-0.3157894736842106</v>
+        <v>-0.31578947368421062</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -560,16 +595,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>0.9004065040650406</v>
+        <v>0.90040650406504064</v>
       </c>
       <c r="E3">
-        <v>0.8999702243101966</v>
+        <v>0.89997022431019658</v>
       </c>
       <c r="F3">
-        <v>0.8004701052770973</v>
+        <v>0.80047010527709728</v>
       </c>
       <c r="G3">
-        <v>0.6041666666666666</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H3">
         <v>0.453125</v>
@@ -581,7 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -592,13 +627,13 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.9217877094972068</v>
+        <v>0.92178770949720679</v>
       </c>
       <c r="E4">
-        <v>0.8977941176470587</v>
+        <v>0.89779411764705874</v>
       </c>
       <c r="F4">
-        <v>0.8192831903079253</v>
+        <v>0.81928319030792529</v>
       </c>
       <c r="G4">
         <v>0.75</v>
@@ -613,7 +648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -624,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.9804469273743016</v>
+        <v>0.98044692737430161</v>
       </c>
       <c r="E5">
-        <v>0.9708333333333332</v>
+        <v>0.97083333333333321</v>
       </c>
       <c r="F5">
-        <v>0.9554837105197712</v>
+        <v>0.95548371051977121</v>
       </c>
       <c r="G5">
         <v>0.5625</v>
@@ -645,7 +680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -656,13 +691,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>0.9253333333333332</v>
+        <v>0.92533333333333323</v>
       </c>
       <c r="E6">
-        <v>0.892156862745098</v>
+        <v>0.89215686274509798</v>
       </c>
       <c r="F6">
-        <v>0.8205128205128205</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="G6">
         <v>0.90625</v>
@@ -677,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -688,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0.9546666666666668</v>
+        <v>0.95466666666666677</v>
       </c>
       <c r="E7">
-        <v>0.933578431372549</v>
+        <v>0.93357843137254903</v>
       </c>
       <c r="F7">
-        <v>0.8927580116073681</v>
+        <v>0.89275801160736812</v>
       </c>
       <c r="G7">
         <v>0.875</v>
@@ -709,7 +744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -720,19 +755,19 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>0.8767676767676768</v>
+        <v>0.87676767676767675</v>
       </c>
       <c r="E8">
-        <v>0.8768188209135794</v>
+        <v>0.87681882091357943</v>
       </c>
       <c r="F8">
-        <v>0.7532866515781647</v>
+        <v>0.75328665157816466</v>
       </c>
       <c r="G8">
         <v>0.625</v>
       </c>
       <c r="H8">
-        <v>0.5833333333333333</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="I8">
         <v>0.1758241758241757</v>
@@ -741,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -752,28 +787,28 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>0.9232323232323232</v>
+        <v>0.92323232323232318</v>
       </c>
       <c r="E9">
-        <v>0.9226531079357814</v>
+        <v>0.92265310793578137</v>
       </c>
       <c r="F9">
-        <v>0.8460946832708767</v>
+        <v>0.84609468327087667</v>
       </c>
       <c r="G9">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H9">
-        <v>0.3958333333333333</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I9">
-        <v>-0.2352941176470588</v>
+        <v>-0.23529411764705879</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -787,25 +822,25 @@
         <v>0.9277456647398844</v>
       </c>
       <c r="E10">
-        <v>0.9120759414877062</v>
+        <v>0.91207594148770621</v>
       </c>
       <c r="F10">
-        <v>0.8304519973342741</v>
+        <v>0.83045199733427411</v>
       </c>
       <c r="G10">
         <v>0.8392857142857143</v>
       </c>
       <c r="H10">
-        <v>0.7375</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="I10">
-        <v>0.5467625899280575</v>
+        <v>0.54676258992805749</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -816,28 +851,28 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>0.9739884393063584</v>
+        <v>0.97398843930635837</v>
       </c>
       <c r="E11">
-        <v>0.9659197012138188</v>
+        <v>0.96591970121381876</v>
       </c>
       <c r="F11">
-        <v>0.9389627190403388</v>
+        <v>0.93896271904033879</v>
       </c>
       <c r="G11">
         <v>0.5357142857142857</v>
       </c>
       <c r="H11">
-        <v>0.4875</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="I11">
-        <v>-0.0224719101123596</v>
+        <v>-2.2471910112359599E-2</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -848,13 +883,13 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>0.9315068493150684</v>
+        <v>0.93150684931506844</v>
       </c>
       <c r="E12">
-        <v>0.9084161982994668</v>
+        <v>0.90841619829946685</v>
       </c>
       <c r="F12">
-        <v>0.8324735170463934</v>
+        <v>0.83247351704639339</v>
       </c>
       <c r="G12">
         <v>0.375</v>
@@ -869,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -883,10 +918,10 @@
         <v>0.9452054794520548</v>
       </c>
       <c r="E13">
-        <v>0.9181438247586108</v>
+        <v>0.91814382475861078</v>
       </c>
       <c r="F13">
-        <v>0.8641203186657732</v>
+        <v>0.86412031866577321</v>
       </c>
       <c r="G13">
         <v>0.375</v>
@@ -901,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -912,13 +947,13 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0.8524590163934426</v>
+        <v>0.85245901639344257</v>
       </c>
       <c r="E14">
-        <v>0.8518218623481781</v>
+        <v>0.85182186234817814</v>
       </c>
       <c r="F14">
-        <v>0.7036437246963563</v>
+        <v>0.70364372469635628</v>
       </c>
       <c r="G14">
         <v>0.25</v>
@@ -933,7 +968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -944,28 +979,28 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>0.8872950819672131</v>
+        <v>0.88729508196721307</v>
       </c>
       <c r="E15">
-        <v>0.8869433198380567</v>
+        <v>0.88694331983805674</v>
       </c>
       <c r="F15">
-        <v>0.773677819751754</v>
+        <v>0.77367781975175398</v>
       </c>
       <c r="G15">
         <v>0.75</v>
       </c>
       <c r="H15">
-        <v>0.5208333333333333</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="I15">
-        <v>0.0588235294117647</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -979,10 +1014,10 @@
         <v>0.9566473988439308</v>
       </c>
       <c r="E16">
-        <v>0.9446179006839132</v>
+        <v>0.94461790068391316</v>
       </c>
       <c r="F16">
-        <v>0.902145631434066</v>
+        <v>0.90214563143406601</v>
       </c>
       <c r="G16">
         <v>0.8571428571428571</v>
@@ -997,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1011,10 +1046,10 @@
         <v>0.9566473988439308</v>
       </c>
       <c r="E17">
-        <v>0.9548394290811776</v>
+        <v>0.95483942908117758</v>
       </c>
       <c r="F17">
-        <v>0.9041338800842292</v>
+        <v>0.90413388008422924</v>
       </c>
       <c r="G17">
         <v>0.8571428571428571</v>
@@ -1029,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1040,16 +1075,16 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.9177718832891246</v>
+        <v>0.91777188328912462</v>
       </c>
       <c r="E18">
-        <v>0.8894051436424317</v>
+        <v>0.88940514364243173</v>
       </c>
       <c r="F18">
-        <v>0.8028874534077685</v>
+        <v>0.80288745340776846</v>
       </c>
       <c r="G18">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H18">
         <v>0.5</v>
@@ -1061,7 +1096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1075,25 +1110,25 @@
         <v>0.9549071618037136</v>
       </c>
       <c r="E19">
-        <v>0.941806818925463</v>
+        <v>0.94180681892546303</v>
       </c>
       <c r="F19">
-        <v>0.8939240967245403</v>
+        <v>0.89392409672454032</v>
       </c>
       <c r="G19">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H19">
         <v>0.3125</v>
       </c>
       <c r="I19">
-        <v>-0.3999999999999999</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1107,10 +1142,10 @@
         <v>0.8606060606060606</v>
       </c>
       <c r="E20">
-        <v>0.8603227283131152</v>
+        <v>0.86032272831311518</v>
       </c>
       <c r="F20">
-        <v>0.7207574010939148</v>
+        <v>0.72075740109391484</v>
       </c>
       <c r="G20">
         <v>0.6</v>
@@ -1125,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1136,28 +1171,28 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>0.901010101010101</v>
+        <v>0.90101010101010104</v>
       </c>
       <c r="E21">
-        <v>0.9000098093712193</v>
+        <v>0.90000980937121933</v>
       </c>
       <c r="F21">
-        <v>0.8013887637873292</v>
+        <v>0.80138876378732915</v>
       </c>
       <c r="G21">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H21">
         <v>0.4375</v>
       </c>
       <c r="I21">
-        <v>-0.1445783132530118</v>
+        <v>-0.14457831325301179</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1168,28 +1203,28 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>0.9202279202279202</v>
+        <v>0.92022792022792022</v>
       </c>
       <c r="E22">
-        <v>0.897021640514613</v>
+        <v>0.89702164051461297</v>
       </c>
       <c r="F22">
-        <v>0.8129353991396704</v>
+        <v>0.81293539913967039</v>
       </c>
       <c r="G22">
         <v>0.45</v>
       </c>
       <c r="H22">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="I22">
-        <v>-0.0784313725490197</v>
+        <v>-7.8431372549019704E-2</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1200,28 +1235,28 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>0.9686609686609686</v>
+        <v>0.96866096866096862</v>
       </c>
       <c r="E23">
-        <v>0.9652710641778836</v>
+        <v>0.96527106417788355</v>
       </c>
       <c r="F23">
-        <v>0.9283846196650158</v>
+        <v>0.92838461966501584</v>
       </c>
       <c r="G23">
         <v>0.5</v>
       </c>
       <c r="H23">
-        <v>0.4895833333333333</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="I23">
-        <v>-0.0204081632653061</v>
+        <v>-2.04081632653061E-2</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1232,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>0.9108108108108108</v>
+        <v>0.91081081081081083</v>
       </c>
       <c r="E24">
-        <v>0.8688578217003546</v>
+        <v>0.86885782170035464</v>
       </c>
       <c r="F24">
-        <v>0.778233862472302</v>
+        <v>0.77823386247230197</v>
       </c>
       <c r="G24">
         <v>0.4375</v>
@@ -1253,7 +1288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1264,28 +1299,28 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>0.9675675675675676</v>
+        <v>0.96756756756756757</v>
       </c>
       <c r="E25">
-        <v>0.9568196687441892</v>
+        <v>0.95681966874418922</v>
       </c>
       <c r="F25">
-        <v>0.9227906653218796</v>
+        <v>0.92279066532187959</v>
       </c>
       <c r="G25">
-        <v>0.5416666666666666</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H25">
-        <v>0.5416666666666666</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I25">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1296,28 +1331,28 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <v>0.8390342052313883</v>
+        <v>0.83903420523138827</v>
       </c>
       <c r="E26">
-        <v>0.8385700389105057</v>
+        <v>0.83857003891050574</v>
       </c>
       <c r="F26">
-        <v>0.6775135450799727</v>
+        <v>0.67751354507997275</v>
       </c>
       <c r="G26">
         <v>0.59375</v>
       </c>
       <c r="H26">
-        <v>0.3958333333333333</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I26">
-        <v>-0.2380952380952381</v>
+        <v>-0.23809523809523811</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1328,19 +1363,19 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>0.9134808853118712</v>
+        <v>0.91348088531187122</v>
       </c>
       <c r="E27">
-        <v>0.912759403372244</v>
+        <v>0.91275940337224404</v>
       </c>
       <c r="F27">
-        <v>0.8265439463666837</v>
+        <v>0.82654394636668371</v>
       </c>
       <c r="G27">
         <v>0.625</v>
       </c>
       <c r="H27">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I27">
         <v>-0.1999999999999999</v>
@@ -1349,7 +1384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1360,16 +1395,16 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>0.9073033707865168</v>
+        <v>0.90730337078651679</v>
       </c>
       <c r="E28">
-        <v>0.8928919357748512</v>
+        <v>0.89289193577485115</v>
       </c>
       <c r="F28">
-        <v>0.787574135686388</v>
+        <v>0.78757413568638801</v>
       </c>
       <c r="G28">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H28">
         <v>0.5</v>
@@ -1381,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1398,10 +1433,10 @@
         <v>0.9488183294244994</v>
       </c>
       <c r="F29">
-        <v>0.8915567660550459</v>
+        <v>0.89155676605504586</v>
       </c>
       <c r="G29">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H29">
         <v>0.5</v>
@@ -1413,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1424,28 +1459,28 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <v>0.9274193548387096</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="E30">
         <v>0.899424801218068</v>
       </c>
       <c r="F30">
-        <v>0.8246018440905281</v>
+        <v>0.82460184409052806</v>
       </c>
       <c r="G30">
         <v>0.7</v>
       </c>
       <c r="H30">
-        <v>0.6458333333333333</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="I30">
-        <v>0.3181818181818182</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1494,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="E31">
-        <v>0.9574352901370328</v>
+        <v>0.95743529013703277</v>
       </c>
       <c r="F31">
         <v>0.9237470533975608</v>
@@ -1477,7 +1512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1488,19 +1523,19 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>0.8470824949698189</v>
+        <v>0.84708249496981891</v>
       </c>
       <c r="E32">
         <v>0.846352140077821</v>
       </c>
       <c r="F32">
-        <v>0.69346880477829</v>
+        <v>0.69346880477828998</v>
       </c>
       <c r="G32">
         <v>0.8125</v>
       </c>
       <c r="H32">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I32">
         <v>0.4</v>
@@ -1509,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1520,19 +1555,19 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>0.909456740442656</v>
+        <v>0.90945674044265601</v>
       </c>
       <c r="E33">
-        <v>0.9090061608300908</v>
+        <v>0.90900616083009078</v>
       </c>
       <c r="F33">
-        <v>0.818576353680795</v>
+        <v>0.81857635368079495</v>
       </c>
       <c r="G33">
         <v>0.8125</v>
       </c>
       <c r="H33">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I33">
         <v>0.4</v>
@@ -1541,7 +1576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1552,13 +1587,13 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>0.9106145251396648</v>
+        <v>0.91061452513966479</v>
       </c>
       <c r="E34">
-        <v>0.8988700564971752</v>
+        <v>0.89887005649717522</v>
       </c>
       <c r="F34">
-        <v>0.7977401129943503</v>
+        <v>0.79774011299435033</v>
       </c>
       <c r="G34">
         <v>0.4375</v>
@@ -1573,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1584,13 +1619,13 @@
         <v>20</v>
       </c>
       <c r="D35">
-        <v>0.9553072625698324</v>
+        <v>0.95530726256983245</v>
       </c>
       <c r="E35">
-        <v>0.9494350282485876</v>
+        <v>0.94943502824858761</v>
       </c>
       <c r="F35">
-        <v>0.8988700564971751</v>
+        <v>0.89887005649717511</v>
       </c>
       <c r="G35">
         <v>0.75</v>
@@ -1605,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1616,13 +1651,13 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.9173333333333332</v>
+        <v>0.91733333333333322</v>
       </c>
       <c r="E36">
-        <v>0.8984369847655477</v>
+        <v>0.89843698476554767</v>
       </c>
       <c r="F36">
-        <v>0.8061110462498123</v>
+        <v>0.80611104624981234</v>
       </c>
       <c r="G36">
         <v>0.84375</v>
@@ -1631,13 +1666,13 @@
         <v>0.6875</v>
       </c>
       <c r="I36">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="J36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1648,13 +1683,13 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E37">
-        <v>0.9316428147464222</v>
+        <v>0.93164281474642219</v>
       </c>
       <c r="F37">
-        <v>0.8692620569436375</v>
+        <v>0.86926205694363745</v>
       </c>
       <c r="G37">
         <v>0.8125</v>
@@ -1663,13 +1698,13 @@
         <v>0.625</v>
       </c>
       <c r="I37">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1683,13 +1718,13 @@
         <v>0.8597560975609756</v>
       </c>
       <c r="E38">
-        <v>0.8602031363726593</v>
+        <v>0.86020313637265933</v>
       </c>
       <c r="F38">
-        <v>0.7195492697111889</v>
+        <v>0.71954926971118893</v>
       </c>
       <c r="G38">
-        <v>0.3541666666666667</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H38">
         <v>0.390625</v>
@@ -1701,7 +1736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1712,13 +1747,13 @@
         <v>21</v>
       </c>
       <c r="D39">
-        <v>0.9085365853658536</v>
+        <v>0.90853658536585358</v>
       </c>
       <c r="E39">
-        <v>0.9079765764573546</v>
+        <v>0.90797657645735463</v>
       </c>
       <c r="F39">
-        <v>0.8167097158752235</v>
+        <v>0.81670971587522345</v>
       </c>
       <c r="G39">
         <v>0.375</v>
@@ -1727,13 +1762,13 @@
         <v>0.53125</v>
       </c>
       <c r="I39">
-        <v>0.0425531914893617</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="J39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1785,7 @@
         <v>0.876890756302521</v>
       </c>
       <c r="F40">
-        <v>0.7745835282265319</v>
+        <v>0.77458352822653187</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1762,7 +1797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1773,13 +1808,13 @@
         <v>21</v>
       </c>
       <c r="D41">
-        <v>0.9581005586592178</v>
+        <v>0.95810055865921784</v>
       </c>
       <c r="E41">
-        <v>0.947829131652661</v>
+        <v>0.94782913165266103</v>
       </c>
       <c r="F41">
-        <v>0.9050061914027948</v>
+        <v>0.90500619140279481</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1791,7 +1826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1805,10 +1840,10 @@
         <v>0.92</v>
       </c>
       <c r="E42">
-        <v>0.8860294117647058</v>
+        <v>0.88602941176470584</v>
       </c>
       <c r="F42">
-        <v>0.8076923076923077</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="G42">
         <v>0.5</v>
@@ -1823,7 +1858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1834,13 +1869,13 @@
         <v>21</v>
       </c>
       <c r="D43">
-        <v>0.9253333333333332</v>
+        <v>0.92533333333333323</v>
       </c>
       <c r="E43">
-        <v>0.8943627450980391</v>
+        <v>0.89436274509803915</v>
       </c>
       <c r="F43">
-        <v>0.821337417049515</v>
+        <v>0.82133741704951502</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1852,7 +1887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1863,28 +1898,28 @@
         <v>22</v>
       </c>
       <c r="D44">
-        <v>0.8469387755102041</v>
+        <v>0.84693877551020413</v>
       </c>
       <c r="E44">
         <v>0.8468720821661998</v>
       </c>
       <c r="F44">
-        <v>0.6936632045746295</v>
+        <v>0.69366320457462949</v>
       </c>
       <c r="G44">
         <v>0.4464285714285714</v>
       </c>
       <c r="H44">
-        <v>0.51875</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I44">
-        <v>0.0269058295964124</v>
+        <v>2.6905829596412401E-2</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1895,28 +1930,28 @@
         <v>22</v>
       </c>
       <c r="D45">
-        <v>0.8959183673469387</v>
+        <v>0.89591836734693875</v>
       </c>
       <c r="E45">
-        <v>0.8953081232492996</v>
+        <v>0.89530812324929965</v>
       </c>
       <c r="F45">
-        <v>0.791447599018577</v>
+        <v>0.79144759901857697</v>
       </c>
       <c r="G45">
         <v>0.4464285714285714</v>
       </c>
       <c r="H45">
-        <v>0.5375</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="I45">
-        <v>0.0524017467248908</v>
+        <v>5.2401746724890799E-2</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1930,10 +1965,10 @@
         <v>0.9022346368715084</v>
       </c>
       <c r="E46">
-        <v>0.8727591036414566</v>
+        <v>0.87275910364145659</v>
       </c>
       <c r="F46">
-        <v>0.7726530464128897</v>
+        <v>0.77265304641288968</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1945,7 +1980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1956,13 +1991,13 @@
         <v>22</v>
       </c>
       <c r="D47">
-        <v>0.9553072625698324</v>
+        <v>0.95530726256983245</v>
       </c>
       <c r="E47">
-        <v>0.9415966386554622</v>
+        <v>0.94159663865546217</v>
       </c>
       <c r="F47">
-        <v>0.8980347479350612</v>
+        <v>0.89803474793506122</v>
       </c>
       <c r="G47">
         <v>0.875</v>
@@ -1977,7 +2012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1988,13 +2023,13 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>0.9059139784946236</v>
+        <v>0.90591397849462363</v>
       </c>
       <c r="E48">
-        <v>0.8847222222222222</v>
+        <v>0.88472222222222219</v>
       </c>
       <c r="F48">
-        <v>0.7813822284908322</v>
+        <v>0.78138222849083216</v>
       </c>
       <c r="G48">
         <v>0.2</v>
@@ -2009,7 +2044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2020,10 +2055,10 @@
         <v>22</v>
       </c>
       <c r="D49">
-        <v>0.9274193548387096</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="E49">
-        <v>0.9071428571428573</v>
+        <v>0.90714285714285725</v>
       </c>
       <c r="F49">
         <v>0.8306010928961749</v>
@@ -2032,7 +2067,7 @@
         <v>0.45</v>
       </c>
       <c r="H49">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2041,7 +2076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2052,10 +2087,10 @@
         <v>23</v>
       </c>
       <c r="D50">
-        <v>0.8408163265306122</v>
+        <v>0.84081632653061222</v>
       </c>
       <c r="E50">
-        <v>0.8403333333333334</v>
+        <v>0.84033333333333338</v>
       </c>
       <c r="F50">
         <v>0.681234361968307</v>
@@ -2064,16 +2099,16 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="H50">
-        <v>0.3229166666666667</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="I50">
-        <v>-0.2411347517730497</v>
+        <v>-0.24113475177304969</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2084,10 +2119,10 @@
         <v>23</v>
       </c>
       <c r="D51">
-        <v>0.9061224489795918</v>
+        <v>0.90612244897959182</v>
       </c>
       <c r="E51">
-        <v>0.9058333333333334</v>
+        <v>0.90583333333333338</v>
       </c>
       <c r="F51">
         <v>0.8120727030181758</v>
@@ -2096,16 +2131,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H51">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I51">
-        <v>-0.2352941176470588</v>
+        <v>-0.23529411764705879</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2116,13 +2151,13 @@
         <v>23</v>
       </c>
       <c r="D52">
-        <v>0.905027932960894</v>
+        <v>0.90502793296089401</v>
       </c>
       <c r="E52">
-        <v>0.8903954802259887</v>
+        <v>0.89039548022598869</v>
       </c>
       <c r="F52">
-        <v>0.7841690900063834</v>
+        <v>0.78416909000638335</v>
       </c>
       <c r="G52">
         <v>0.375</v>
@@ -2137,7 +2172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2148,13 +2183,13 @@
         <v>23</v>
       </c>
       <c r="D53">
-        <v>0.9497206703910616</v>
+        <v>0.94972067039106156</v>
       </c>
       <c r="E53">
-        <v>0.9495762711864406</v>
+        <v>0.94957627118644061</v>
       </c>
       <c r="F53">
-        <v>0.8876804015896256</v>
+        <v>0.88768040158962558</v>
       </c>
       <c r="G53">
         <v>0.5</v>
@@ -2169,7 +2204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2180,13 +2215,13 @@
         <v>23</v>
       </c>
       <c r="D54">
-        <v>0.9320652173913044</v>
+        <v>0.93206521739130443</v>
       </c>
       <c r="E54">
-        <v>0.9253898305084746</v>
+        <v>0.92538983050847456</v>
       </c>
       <c r="F54">
-        <v>0.8451074146407165</v>
+        <v>0.84510741464071648</v>
       </c>
       <c r="G54">
         <v>0.8571428571428571</v>
@@ -2201,7 +2236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2212,41 +2247,53 @@
         <v>23</v>
       </c>
       <c r="D55">
-        <v>0.9456521739130436</v>
+        <v>0.94565217391304357</v>
       </c>
       <c r="E55">
-        <v>0.930915254237288</v>
+        <v>0.93091525423728805</v>
       </c>
       <c r="F55">
-        <v>0.8735568993952721</v>
+        <v>0.87355689939527215</v>
       </c>
       <c r="G55">
         <v>0.4107142857142857</v>
       </c>
       <c r="H55">
-        <v>0.2395833333333333</v>
+        <v>0.23958333333333329</v>
       </c>
       <c r="I55">
-        <v>-0.2762430939226521</v>
+        <v>-0.27624309392265212</v>
       </c>
       <c r="J55" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SVC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1_vs_2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2289,10 +2336,10 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.8408163265306122</v>
+        <v>0.84081632653061222</v>
       </c>
       <c r="E2">
-        <v>0.8403333333333334</v>
+        <v>0.84033333333333338</v>
       </c>
       <c r="F2">
         <v>0.681234361968307</v>
@@ -2301,16 +2348,16 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="H2">
-        <v>0.3229166666666667</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="I2">
-        <v>-0.2411347517730497</v>
+        <v>-0.24113475177304969</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2321,10 +2368,10 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>0.9061224489795918</v>
+        <v>0.90612244897959182</v>
       </c>
       <c r="E3">
-        <v>0.9058333333333334</v>
+        <v>0.90583333333333338</v>
       </c>
       <c r="F3">
         <v>0.8120727030181758</v>
@@ -2333,16 +2380,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H3">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3">
-        <v>-0.2352941176470588</v>
+        <v>-0.23529411764705879</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2353,13 +2400,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>0.905027932960894</v>
+        <v>0.90502793296089401</v>
       </c>
       <c r="E4">
-        <v>0.8903954802259887</v>
+        <v>0.89039548022598869</v>
       </c>
       <c r="F4">
-        <v>0.7841690900063834</v>
+        <v>0.78416909000638335</v>
       </c>
       <c r="G4">
         <v>0.375</v>
@@ -2374,7 +2421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2385,13 +2432,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>0.9497206703910616</v>
+        <v>0.94972067039106156</v>
       </c>
       <c r="E5">
-        <v>0.9495762711864406</v>
+        <v>0.94957627118644061</v>
       </c>
       <c r="F5">
-        <v>0.8876804015896256</v>
+        <v>0.88768040158962558</v>
       </c>
       <c r="G5">
         <v>0.5</v>
@@ -2406,7 +2453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2417,13 +2464,13 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.9320652173913044</v>
+        <v>0.93206521739130443</v>
       </c>
       <c r="E6">
-        <v>0.9253898305084746</v>
+        <v>0.92538983050847456</v>
       </c>
       <c r="F6">
-        <v>0.8451074146407165</v>
+        <v>0.84510741464071648</v>
       </c>
       <c r="G6">
         <v>0.8571428571428571</v>
@@ -2438,7 +2485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2449,22 +2496,22 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0.9456521739130436</v>
+        <v>0.94565217391304357</v>
       </c>
       <c r="E7">
-        <v>0.930915254237288</v>
+        <v>0.93091525423728805</v>
       </c>
       <c r="F7">
-        <v>0.8735568993952721</v>
+        <v>0.87355689939527215</v>
       </c>
       <c r="G7">
         <v>0.4107142857142857</v>
       </c>
       <c r="H7">
-        <v>0.2395833333333333</v>
+        <v>0.23958333333333329</v>
       </c>
       <c r="I7">
-        <v>-0.2762430939226521</v>
+        <v>-0.27624309392265212</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -2476,14 +2523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2526,28 +2573,28 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>0.8475609756097561</v>
+        <v>0.84756097560975607</v>
       </c>
       <c r="E2">
-        <v>0.8481274399523588</v>
+        <v>0.84812743995235884</v>
       </c>
       <c r="F2">
         <v>0.6952428146679881</v>
       </c>
       <c r="G2">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="H2">
         <v>0.359375</v>
       </c>
       <c r="I2">
-        <v>-0.3157894736842106</v>
+        <v>-0.31578947368421062</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2558,16 +2605,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>0.9004065040650406</v>
+        <v>0.90040650406504064</v>
       </c>
       <c r="E3">
-        <v>0.8999702243101966</v>
+        <v>0.89997022431019658</v>
       </c>
       <c r="F3">
-        <v>0.8004701052770973</v>
+        <v>0.80047010527709728</v>
       </c>
       <c r="G3">
-        <v>0.6041666666666666</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H3">
         <v>0.453125</v>
@@ -2579,7 +2626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2590,13 +2637,13 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.9217877094972068</v>
+        <v>0.92178770949720679</v>
       </c>
       <c r="E4">
-        <v>0.8977941176470587</v>
+        <v>0.89779411764705874</v>
       </c>
       <c r="F4">
-        <v>0.8192831903079253</v>
+        <v>0.81928319030792529</v>
       </c>
       <c r="G4">
         <v>0.75</v>
@@ -2611,7 +2658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2622,13 +2669,13 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.9804469273743016</v>
+        <v>0.98044692737430161</v>
       </c>
       <c r="E5">
-        <v>0.9708333333333332</v>
+        <v>0.97083333333333321</v>
       </c>
       <c r="F5">
-        <v>0.9554837105197712</v>
+        <v>0.95548371051977121</v>
       </c>
       <c r="G5">
         <v>0.5625</v>
@@ -2643,7 +2690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2654,13 +2701,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>0.9253333333333332</v>
+        <v>0.92533333333333323</v>
       </c>
       <c r="E6">
-        <v>0.892156862745098</v>
+        <v>0.89215686274509798</v>
       </c>
       <c r="F6">
-        <v>0.8205128205128205</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="G6">
         <v>0.90625</v>
@@ -2675,7 +2722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2686,13 +2733,13 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0.9546666666666668</v>
+        <v>0.95466666666666677</v>
       </c>
       <c r="E7">
-        <v>0.933578431372549</v>
+        <v>0.93357843137254903</v>
       </c>
       <c r="F7">
-        <v>0.8927580116073681</v>
+        <v>0.89275801160736812</v>
       </c>
       <c r="G7">
         <v>0.875</v>
@@ -2713,14 +2760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2763,19 +2810,19 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>0.8767676767676768</v>
+        <v>0.87676767676767675</v>
       </c>
       <c r="E2">
-        <v>0.8768188209135794</v>
+        <v>0.87681882091357943</v>
       </c>
       <c r="F2">
-        <v>0.7532866515781647</v>
+        <v>0.75328665157816466</v>
       </c>
       <c r="G2">
         <v>0.625</v>
       </c>
       <c r="H2">
-        <v>0.5833333333333333</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="I2">
         <v>0.1758241758241757</v>
@@ -2784,7 +2831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2795,28 +2842,28 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.9232323232323232</v>
+        <v>0.92323232323232318</v>
       </c>
       <c r="E3">
-        <v>0.9226531079357814</v>
+        <v>0.92265310793578137</v>
       </c>
       <c r="F3">
-        <v>0.8460946832708767</v>
+        <v>0.84609468327087667</v>
       </c>
       <c r="G3">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H3">
-        <v>0.3958333333333333</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I3">
-        <v>-0.2352941176470588</v>
+        <v>-0.23529411764705879</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2830,25 +2877,25 @@
         <v>0.9277456647398844</v>
       </c>
       <c r="E4">
-        <v>0.9120759414877062</v>
+        <v>0.91207594148770621</v>
       </c>
       <c r="F4">
-        <v>0.8304519973342741</v>
+        <v>0.83045199733427411</v>
       </c>
       <c r="G4">
         <v>0.8392857142857143</v>
       </c>
       <c r="H4">
-        <v>0.7375</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="I4">
-        <v>0.5467625899280575</v>
+        <v>0.54676258992805749</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2859,28 +2906,28 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>0.9739884393063584</v>
+        <v>0.97398843930635837</v>
       </c>
       <c r="E5">
-        <v>0.9659197012138188</v>
+        <v>0.96591970121381876</v>
       </c>
       <c r="F5">
-        <v>0.9389627190403388</v>
+        <v>0.93896271904033879</v>
       </c>
       <c r="G5">
         <v>0.5357142857142857</v>
       </c>
       <c r="H5">
-        <v>0.4875</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="I5">
-        <v>-0.0224719101123596</v>
+        <v>-2.2471910112359599E-2</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2891,13 +2938,13 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>0.9315068493150684</v>
+        <v>0.93150684931506844</v>
       </c>
       <c r="E6">
-        <v>0.9084161982994668</v>
+        <v>0.90841619829946685</v>
       </c>
       <c r="F6">
-        <v>0.8324735170463934</v>
+        <v>0.83247351704639339</v>
       </c>
       <c r="G6">
         <v>0.375</v>
@@ -2912,7 +2959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2926,10 +2973,10 @@
         <v>0.9452054794520548</v>
       </c>
       <c r="E7">
-        <v>0.9181438247586108</v>
+        <v>0.91814382475861078</v>
       </c>
       <c r="F7">
-        <v>0.8641203186657732</v>
+        <v>0.86412031866577321</v>
       </c>
       <c r="G7">
         <v>0.375</v>
@@ -2950,14 +2997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3000,13 +3047,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>0.8524590163934426</v>
+        <v>0.85245901639344257</v>
       </c>
       <c r="E2">
-        <v>0.8518218623481781</v>
+        <v>0.85182186234817814</v>
       </c>
       <c r="F2">
-        <v>0.7036437246963563</v>
+        <v>0.70364372469635628</v>
       </c>
       <c r="G2">
         <v>0.25</v>
@@ -3021,7 +3068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3032,28 +3079,28 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>0.8872950819672131</v>
+        <v>0.88729508196721307</v>
       </c>
       <c r="E3">
-        <v>0.8869433198380567</v>
+        <v>0.88694331983805674</v>
       </c>
       <c r="F3">
-        <v>0.773677819751754</v>
+        <v>0.77367781975175398</v>
       </c>
       <c r="G3">
         <v>0.75</v>
       </c>
       <c r="H3">
-        <v>0.5208333333333333</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="I3">
-        <v>0.0588235294117647</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3067,10 +3114,10 @@
         <v>0.9566473988439308</v>
       </c>
       <c r="E4">
-        <v>0.9446179006839132</v>
+        <v>0.94461790068391316</v>
       </c>
       <c r="F4">
-        <v>0.902145631434066</v>
+        <v>0.90214563143406601</v>
       </c>
       <c r="G4">
         <v>0.8571428571428571</v>
@@ -3085,7 +3132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3099,10 +3146,10 @@
         <v>0.9566473988439308</v>
       </c>
       <c r="E5">
-        <v>0.9548394290811776</v>
+        <v>0.95483942908117758</v>
       </c>
       <c r="F5">
-        <v>0.9041338800842292</v>
+        <v>0.90413388008422924</v>
       </c>
       <c r="G5">
         <v>0.8571428571428571</v>
@@ -3117,7 +3164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3128,16 +3175,16 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>0.9177718832891246</v>
+        <v>0.91777188328912462</v>
       </c>
       <c r="E6">
-        <v>0.8894051436424317</v>
+        <v>0.88940514364243173</v>
       </c>
       <c r="F6">
-        <v>0.8028874534077685</v>
+        <v>0.80288745340776846</v>
       </c>
       <c r="G6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
         <v>0.5</v>
@@ -3149,7 +3196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3163,19 +3210,19 @@
         <v>0.9549071618037136</v>
       </c>
       <c r="E7">
-        <v>0.941806818925463</v>
+        <v>0.94180681892546303</v>
       </c>
       <c r="F7">
-        <v>0.8939240967245403</v>
+        <v>0.89392409672454032</v>
       </c>
       <c r="G7">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H7">
         <v>0.3125</v>
       </c>
       <c r="I7">
-        <v>-0.3999999999999999</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -3187,14 +3234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +3273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3240,10 +3287,10 @@
         <v>0.8606060606060606</v>
       </c>
       <c r="E2">
-        <v>0.8603227283131152</v>
+        <v>0.86032272831311518</v>
       </c>
       <c r="F2">
-        <v>0.7207574010939148</v>
+        <v>0.72075740109391484</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -3258,7 +3305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3269,28 +3316,28 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>0.901010101010101</v>
+        <v>0.90101010101010104</v>
       </c>
       <c r="E3">
-        <v>0.9000098093712193</v>
+        <v>0.90000980937121933</v>
       </c>
       <c r="F3">
-        <v>0.8013887637873292</v>
+        <v>0.80138876378732915</v>
       </c>
       <c r="G3">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H3">
         <v>0.4375</v>
       </c>
       <c r="I3">
-        <v>-0.1445783132530118</v>
+        <v>-0.14457831325301179</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3301,28 +3348,28 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0.9202279202279202</v>
+        <v>0.92022792022792022</v>
       </c>
       <c r="E4">
-        <v>0.897021640514613</v>
+        <v>0.89702164051461297</v>
       </c>
       <c r="F4">
-        <v>0.8129353991396704</v>
+        <v>0.81293539913967039</v>
       </c>
       <c r="G4">
         <v>0.45</v>
       </c>
       <c r="H4">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="I4">
-        <v>-0.0784313725490197</v>
+        <v>-7.8431372549019704E-2</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3333,28 +3380,28 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.9686609686609686</v>
+        <v>0.96866096866096862</v>
       </c>
       <c r="E5">
-        <v>0.9652710641778836</v>
+        <v>0.96527106417788355</v>
       </c>
       <c r="F5">
-        <v>0.9283846196650158</v>
+        <v>0.92838461966501584</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.4895833333333333</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="I5">
-        <v>-0.0204081632653061</v>
+        <v>-2.04081632653061E-2</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3365,13 +3412,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.9108108108108108</v>
+        <v>0.91081081081081083</v>
       </c>
       <c r="E6">
-        <v>0.8688578217003546</v>
+        <v>0.86885782170035464</v>
       </c>
       <c r="F6">
-        <v>0.778233862472302</v>
+        <v>0.77823386247230197</v>
       </c>
       <c r="G6">
         <v>0.4375</v>
@@ -3386,7 +3433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3397,22 +3444,22 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.9675675675675676</v>
+        <v>0.96756756756756757</v>
       </c>
       <c r="E7">
-        <v>0.9568196687441892</v>
+        <v>0.95681966874418922</v>
       </c>
       <c r="F7">
-        <v>0.9227906653218796</v>
+        <v>0.92279066532187959</v>
       </c>
       <c r="G7">
-        <v>0.5416666666666666</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H7">
-        <v>0.5416666666666666</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I7">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -3424,14 +3471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3474,28 +3521,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.8390342052313883</v>
+        <v>0.83903420523138827</v>
       </c>
       <c r="E2">
-        <v>0.8385700389105057</v>
+        <v>0.83857003891050574</v>
       </c>
       <c r="F2">
-        <v>0.6775135450799727</v>
+        <v>0.67751354507997275</v>
       </c>
       <c r="G2">
         <v>0.59375</v>
       </c>
       <c r="H2">
-        <v>0.3958333333333333</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I2">
-        <v>-0.2380952380952381</v>
+        <v>-0.23809523809523811</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3506,19 +3553,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>0.9134808853118712</v>
+        <v>0.91348088531187122</v>
       </c>
       <c r="E3">
-        <v>0.912759403372244</v>
+        <v>0.91275940337224404</v>
       </c>
       <c r="F3">
-        <v>0.8265439463666837</v>
+        <v>0.82654394636668371</v>
       </c>
       <c r="G3">
         <v>0.625</v>
       </c>
       <c r="H3">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I3">
         <v>-0.1999999999999999</v>
@@ -3527,7 +3574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3538,16 +3585,16 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>0.9073033707865168</v>
+        <v>0.90730337078651679</v>
       </c>
       <c r="E4">
-        <v>0.8928919357748512</v>
+        <v>0.89289193577485115</v>
       </c>
       <c r="F4">
-        <v>0.787574135686388</v>
+        <v>0.78757413568638801</v>
       </c>
       <c r="G4">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H4">
         <v>0.5</v>
@@ -3559,7 +3606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3576,10 +3623,10 @@
         <v>0.9488183294244994</v>
       </c>
       <c r="F5">
-        <v>0.8915567660550459</v>
+        <v>0.89155676605504586</v>
       </c>
       <c r="G5">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5">
         <v>0.5</v>
@@ -3591,7 +3638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3602,28 +3649,28 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0.9274193548387096</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="E6">
         <v>0.899424801218068</v>
       </c>
       <c r="F6">
-        <v>0.8246018440905281</v>
+        <v>0.82460184409052806</v>
       </c>
       <c r="G6">
         <v>0.7</v>
       </c>
       <c r="H6">
-        <v>0.6458333333333333</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="I6">
-        <v>0.3181818181818182</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3637,7 +3684,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="E7">
-        <v>0.9574352901370328</v>
+        <v>0.95743529013703277</v>
       </c>
       <c r="F7">
         <v>0.9237470533975608</v>
@@ -3661,14 +3708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3711,19 +3758,19 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>0.8470824949698189</v>
+        <v>0.84708249496981891</v>
       </c>
       <c r="E2">
         <v>0.846352140077821</v>
       </c>
       <c r="F2">
-        <v>0.69346880477829</v>
+        <v>0.69346880477828998</v>
       </c>
       <c r="G2">
         <v>0.8125</v>
       </c>
       <c r="H2">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I2">
         <v>0.4</v>
@@ -3732,7 +3779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3743,19 +3790,19 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.909456740442656</v>
+        <v>0.90945674044265601</v>
       </c>
       <c r="E3">
-        <v>0.9090061608300908</v>
+        <v>0.90900616083009078</v>
       </c>
       <c r="F3">
-        <v>0.818576353680795</v>
+        <v>0.81857635368079495</v>
       </c>
       <c r="G3">
         <v>0.8125</v>
       </c>
       <c r="H3">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I3">
         <v>0.4</v>
@@ -3764,7 +3811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3775,13 +3822,13 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>0.9106145251396648</v>
+        <v>0.91061452513966479</v>
       </c>
       <c r="E4">
-        <v>0.8988700564971752</v>
+        <v>0.89887005649717522</v>
       </c>
       <c r="F4">
-        <v>0.7977401129943503</v>
+        <v>0.79774011299435033</v>
       </c>
       <c r="G4">
         <v>0.4375</v>
@@ -3796,7 +3843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3807,13 +3854,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0.9553072625698324</v>
+        <v>0.95530726256983245</v>
       </c>
       <c r="E5">
-        <v>0.9494350282485876</v>
+        <v>0.94943502824858761</v>
       </c>
       <c r="F5">
-        <v>0.8988700564971751</v>
+        <v>0.89887005649717511</v>
       </c>
       <c r="G5">
         <v>0.75</v>
@@ -3828,7 +3875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3839,13 +3886,13 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0.9173333333333332</v>
+        <v>0.91733333333333322</v>
       </c>
       <c r="E6">
-        <v>0.8984369847655477</v>
+        <v>0.89843698476554767</v>
       </c>
       <c r="F6">
-        <v>0.8061110462498123</v>
+        <v>0.80611104624981234</v>
       </c>
       <c r="G6">
         <v>0.84375</v>
@@ -3854,13 +3901,13 @@
         <v>0.6875</v>
       </c>
       <c r="I6">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3871,13 +3918,13 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E7">
-        <v>0.9316428147464222</v>
+        <v>0.93164281474642219</v>
       </c>
       <c r="F7">
-        <v>0.8692620569436375</v>
+        <v>0.86926205694363745</v>
       </c>
       <c r="G7">
         <v>0.8125</v>
@@ -3886,7 +3933,7 @@
         <v>0.625</v>
       </c>
       <c r="I7">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
@@ -3898,14 +3945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3951,13 +3998,13 @@
         <v>0.8597560975609756</v>
       </c>
       <c r="E2">
-        <v>0.8602031363726593</v>
+        <v>0.86020313637265933</v>
       </c>
       <c r="F2">
-        <v>0.7195492697111889</v>
+        <v>0.71954926971118893</v>
       </c>
       <c r="G2">
-        <v>0.3541666666666667</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H2">
         <v>0.390625</v>
@@ -3969,7 +4016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3980,13 +4027,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>0.9085365853658536</v>
+        <v>0.90853658536585358</v>
       </c>
       <c r="E3">
-        <v>0.9079765764573546</v>
+        <v>0.90797657645735463</v>
       </c>
       <c r="F3">
-        <v>0.8167097158752235</v>
+        <v>0.81670971587522345</v>
       </c>
       <c r="G3">
         <v>0.375</v>
@@ -3995,13 +4042,13 @@
         <v>0.53125</v>
       </c>
       <c r="I3">
-        <v>0.0425531914893617</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4065,7 @@
         <v>0.876890756302521</v>
       </c>
       <c r="F4">
-        <v>0.7745835282265319</v>
+        <v>0.77458352822653187</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4030,7 +4077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4041,13 +4088,13 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0.9581005586592178</v>
+        <v>0.95810055865921784</v>
       </c>
       <c r="E5">
-        <v>0.947829131652661</v>
+        <v>0.94782913165266103</v>
       </c>
       <c r="F5">
-        <v>0.9050061914027948</v>
+        <v>0.90500619140279481</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4059,7 +4106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4073,10 +4120,10 @@
         <v>0.92</v>
       </c>
       <c r="E6">
-        <v>0.8860294117647058</v>
+        <v>0.88602941176470584</v>
       </c>
       <c r="F6">
-        <v>0.8076923076923077</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="G6">
         <v>0.5</v>
@@ -4091,7 +4138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4102,13 +4149,13 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.9253333333333332</v>
+        <v>0.92533333333333323</v>
       </c>
       <c r="E7">
-        <v>0.8943627450980391</v>
+        <v>0.89436274509803915</v>
       </c>
       <c r="F7">
-        <v>0.821337417049515</v>
+        <v>0.82133741704951502</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4126,14 +4173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4176,28 +4223,28 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0.8469387755102041</v>
+        <v>0.84693877551020413</v>
       </c>
       <c r="E2">
         <v>0.8468720821661998</v>
       </c>
       <c r="F2">
-        <v>0.6936632045746295</v>
+        <v>0.69366320457462949</v>
       </c>
       <c r="G2">
         <v>0.4464285714285714</v>
       </c>
       <c r="H2">
-        <v>0.51875</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I2">
-        <v>0.0269058295964124</v>
+        <v>2.6905829596412401E-2</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4208,28 +4255,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>0.8959183673469387</v>
+        <v>0.89591836734693875</v>
       </c>
       <c r="E3">
-        <v>0.8953081232492996</v>
+        <v>0.89530812324929965</v>
       </c>
       <c r="F3">
-        <v>0.791447599018577</v>
+        <v>0.79144759901857697</v>
       </c>
       <c r="G3">
         <v>0.4464285714285714</v>
       </c>
       <c r="H3">
-        <v>0.5375</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="I3">
-        <v>0.0524017467248908</v>
+        <v>5.2401746724890799E-2</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4243,10 +4290,10 @@
         <v>0.9022346368715084</v>
       </c>
       <c r="E4">
-        <v>0.8727591036414566</v>
+        <v>0.87275910364145659</v>
       </c>
       <c r="F4">
-        <v>0.7726530464128897</v>
+        <v>0.77265304641288968</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4258,7 +4305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4269,13 +4316,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>0.9553072625698324</v>
+        <v>0.95530726256983245</v>
       </c>
       <c r="E5">
-        <v>0.9415966386554622</v>
+        <v>0.94159663865546217</v>
       </c>
       <c r="F5">
-        <v>0.8980347479350612</v>
+        <v>0.89803474793506122</v>
       </c>
       <c r="G5">
         <v>0.875</v>
@@ -4290,7 +4337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4301,13 +4348,13 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0.9059139784946236</v>
+        <v>0.90591397849462363</v>
       </c>
       <c r="E6">
-        <v>0.8847222222222222</v>
+        <v>0.88472222222222219</v>
       </c>
       <c r="F6">
-        <v>0.7813822284908322</v>
+        <v>0.78138222849083216</v>
       </c>
       <c r="G6">
         <v>0.2</v>
@@ -4322,7 +4369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4333,10 +4380,10 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>0.9274193548387096</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="E7">
-        <v>0.9071428571428573</v>
+        <v>0.90714285714285725</v>
       </c>
       <c r="F7">
         <v>0.8306010928961749</v>
@@ -4345,7 +4392,7 @@
         <v>0.45</v>
       </c>
       <c r="H7">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
